--- a/backend/django_subject_manager/input/nappali.xlsx
+++ b/backend/django_subject_manager/input/nappali.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathearnoldattila/Arnold/egyetem/6felev/subject_manager/backend/django_subject_manager/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68187556-8FFF-AE44-BF80-2033C5A34E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7084BE-241F-554D-8D2B-F51D004626EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="1760" windowWidth="21600" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modellező (A)" sheetId="4" r:id="rId1"/>
@@ -3964,8 +3964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6695,7 +6695,7 @@
         <v>171</v>
       </c>
       <c r="J71" s="185" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K71" s="81"/>
       <c r="L71" s="81"/>
@@ -6743,7 +6743,7 @@
         <v>171</v>
       </c>
       <c r="J72" s="185" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K72" s="81"/>
       <c r="L72" s="81"/>
@@ -8918,8 +8918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V134"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A66" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11715,7 +11715,7 @@
         <v>171</v>
       </c>
       <c r="J73" s="185" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K73" s="81"/>
       <c r="L73" s="81"/>
@@ -11763,7 +11763,7 @@
         <v>171</v>
       </c>
       <c r="J74" s="185" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K74" s="81"/>
       <c r="L74" s="81"/>
@@ -13795,8 +13795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S126"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16275,7 +16275,7 @@
         <v>171</v>
       </c>
       <c r="J65" s="185" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K65" s="81"/>
       <c r="L65" s="81"/>
@@ -16323,7 +16323,7 @@
         <v>171</v>
       </c>
       <c r="J66" s="185" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K66" s="81"/>
       <c r="L66" s="81"/>
@@ -20484,6 +20484,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x010100CA947E63DBB18C43B0DCD636FEFAAF82" ma:contentTypeVersion="4" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="8d212771f6e071c2ced17aef337e9789">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0bdf3a53-275c-4001-b611-e41331286eb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3895272c16275db3f703bd35700e574f" ns2:_="">
     <xsd:import namespace="0bdf3a53-275c-4001-b611-e41331286eb1"/>
@@ -20627,7 +20633,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -20636,13 +20642,16 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4409EB5F-1448-4D54-9B71-5C37674B4244}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F24D559B-4404-4B3B-95DC-67B2F3FFF6EB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20660,19 +20669,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6053F634-73E9-4531-AB0D-1B892B644CD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4409EB5F-1448-4D54-9B71-5C37674B4244}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/backend/django_subject_manager/input/nappali.xlsx
+++ b/backend/django_subject_manager/input/nappali.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathearnoldattila/Arnold/egyetem/6felev/subject_manager/backend/django_subject_manager/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD273AF7-3B05-9245-A115-9CC239B81F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A977457-61D1-1C43-97F9-4DAC2E1AF5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modellező (A)" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="446">
   <si>
     <t>Programtervező informatikus BSc 2018,  Modellező (A) specializáció ajánlott tantervi háló</t>
   </si>
@@ -488,9 +488,6 @@
   </si>
   <si>
     <t>IP-18aNM1G</t>
-  </si>
-  <si>
-    <t>IP-18aAN1E</t>
   </si>
   <si>
     <t>IP-18aBSZEE</t>
@@ -3973,8 +3970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R138"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K72" sqref="K72"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4480,7 +4477,7 @@
     </row>
     <row r="17" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="77" t="s">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="B17" s="125" t="s">
         <v>50</v>
@@ -5717,7 +5714,7 @@
         <v>3</v>
       </c>
       <c r="J47" s="220" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="K47" s="123"/>
       <c r="L47" s="123"/>
@@ -5733,10 +5730,10 @@
     </row>
     <row r="48" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="125" t="s">
         <v>122</v>
-      </c>
-      <c r="B48" s="125" t="s">
-        <v>123</v>
       </c>
       <c r="C48" s="123">
         <v>2</v>
@@ -5760,7 +5757,7 @@
         <v>4</v>
       </c>
       <c r="J48" s="220" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K48" s="123"/>
       <c r="L48" s="123"/>
@@ -5776,10 +5773,10 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B49" s="125" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C49" s="123">
         <v>0</v>
@@ -5819,10 +5816,10 @@
     </row>
     <row r="50" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="125" t="s">
         <v>126</v>
-      </c>
-      <c r="B50" s="125" t="s">
-        <v>127</v>
       </c>
       <c r="C50" s="123">
         <v>2</v>
@@ -5846,7 +5843,7 @@
         <v>4</v>
       </c>
       <c r="J50" s="220" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K50" s="123"/>
       <c r="L50" s="123"/>
@@ -5862,10 +5859,10 @@
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="75" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B51" s="125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C51" s="123">
         <v>0</v>
@@ -5905,10 +5902,10 @@
     </row>
     <row r="52" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="125" t="s">
         <v>130</v>
-      </c>
-      <c r="B52" s="125" t="s">
-        <v>131</v>
       </c>
       <c r="C52" s="123">
         <v>1</v>
@@ -5938,7 +5935,7 @@
       <c r="L52" s="123"/>
       <c r="M52" s="123"/>
       <c r="N52" s="123" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O52" s="123"/>
       <c r="P52" s="123"/>
@@ -5948,10 +5945,10 @@
     </row>
     <row r="53" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="125" t="s">
         <v>133</v>
-      </c>
-      <c r="B53" s="125" t="s">
-        <v>134</v>
       </c>
       <c r="C53" s="123">
         <v>2</v>
@@ -5975,7 +5972,7 @@
         <v>4</v>
       </c>
       <c r="J53" s="220" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K53" s="123"/>
       <c r="L53" s="123"/>
@@ -5991,10 +5988,10 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="75" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B54" s="125" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C54" s="123">
         <v>0</v>
@@ -6034,10 +6031,10 @@
     </row>
     <row r="55" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="125" t="s">
         <v>137</v>
-      </c>
-      <c r="B55" s="125" t="s">
-        <v>138</v>
       </c>
       <c r="C55" s="123">
         <v>2</v>
@@ -6077,10 +6074,10 @@
     </row>
     <row r="56" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" s="127" t="s">
         <v>139</v>
-      </c>
-      <c r="B56" s="127" t="s">
-        <v>140</v>
       </c>
       <c r="C56" s="123">
         <v>2</v>
@@ -6120,10 +6117,10 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" s="127" t="s">
         <v>141</v>
-      </c>
-      <c r="B57" s="127" t="s">
-        <v>142</v>
       </c>
       <c r="C57" s="123">
         <v>1</v>
@@ -6147,14 +6144,14 @@
         <v>5</v>
       </c>
       <c r="J57" s="186" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K57" s="123"/>
       <c r="L57" s="123"/>
       <c r="M57" s="123"/>
       <c r="N57" s="123"/>
       <c r="O57" s="123" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P57" s="123"/>
       <c r="Q57" s="76" t="s">
@@ -6163,10 +6160,10 @@
     </row>
     <row r="58" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="125" t="s">
         <v>144</v>
-      </c>
-      <c r="B58" s="125" t="s">
-        <v>145</v>
       </c>
       <c r="C58" s="123">
         <v>2</v>
@@ -6190,7 +6187,7 @@
         <v>5</v>
       </c>
       <c r="J58" s="220" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K58" s="123"/>
       <c r="L58" s="123"/>
@@ -6206,10 +6203,10 @@
     </row>
     <row r="59" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="134" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B59" s="159" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C59" s="136">
         <v>0</v>
@@ -6233,7 +6230,7 @@
         <v>5</v>
       </c>
       <c r="J59" s="221" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K59" s="136"/>
       <c r="L59" s="136"/>
@@ -6259,7 +6256,7 @@
     </row>
     <row r="61" spans="1:18" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="328" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B61" s="327"/>
       <c r="C61" s="327"/>
@@ -6342,15 +6339,15 @@
         <v>19</v>
       </c>
       <c r="R63" s="304" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="189" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" s="190" t="s">
         <v>150</v>
-      </c>
-      <c r="B64" s="190" t="s">
-        <v>151</v>
       </c>
       <c r="C64" s="313">
         <v>2</v>
@@ -6371,7 +6368,7 @@
         <v>2</v>
       </c>
       <c r="I64" s="315" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J64" s="316" t="s">
         <v>34</v>
@@ -6392,15 +6389,15 @@
         <v>53</v>
       </c>
       <c r="R64" s="199" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="26" x14ac:dyDescent="0.2">
       <c r="A65" s="85" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B65" s="305" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C65" s="81">
         <v>0</v>
@@ -6421,10 +6418,10 @@
         <v>3</v>
       </c>
       <c r="I65" s="87" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J65" s="185" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K65" s="81"/>
       <c r="L65" s="81"/>
@@ -6442,15 +6439,15 @@
         <v>53</v>
       </c>
       <c r="R65" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="79" t="s">
+        <v>155</v>
+      </c>
+      <c r="B66" s="305" t="s">
         <v>156</v>
-      </c>
-      <c r="B66" s="305" t="s">
-        <v>157</v>
       </c>
       <c r="C66" s="81">
         <v>1</v>
@@ -6490,15 +6487,15 @@
         <v>53</v>
       </c>
       <c r="R66" s="205" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="B67" s="305" t="s">
         <v>159</v>
-      </c>
-      <c r="B67" s="305" t="s">
-        <v>160</v>
       </c>
       <c r="C67" s="81">
         <v>2</v>
@@ -6519,10 +6516,10 @@
         <v>2</v>
       </c>
       <c r="I67" s="87" t="s">
+        <v>160</v>
+      </c>
+      <c r="J67" s="88" t="s">
         <v>161</v>
-      </c>
-      <c r="J67" s="88" t="s">
-        <v>162</v>
       </c>
       <c r="K67" s="81"/>
       <c r="L67" s="81"/>
@@ -6536,15 +6533,15 @@
         <v>65</v>
       </c>
       <c r="R67" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="85" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B68" s="305" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C68" s="81">
         <v>0</v>
@@ -6565,7 +6562,7 @@
         <v>3</v>
       </c>
       <c r="I68" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J68" s="88" t="s">
         <v>69</v>
@@ -6582,15 +6579,15 @@
         <v>65</v>
       </c>
       <c r="R68" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="B69" s="306" t="s">
         <v>164</v>
-      </c>
-      <c r="B69" s="306" t="s">
-        <v>165</v>
       </c>
       <c r="C69" s="81">
         <v>1</v>
@@ -6611,10 +6608,10 @@
         <v>3</v>
       </c>
       <c r="I69" s="87" t="s">
+        <v>165</v>
+      </c>
+      <c r="J69" s="185" t="s">
         <v>166</v>
-      </c>
-      <c r="J69" s="185" t="s">
-        <v>167</v>
       </c>
       <c r="K69" s="81"/>
       <c r="L69" s="81"/>
@@ -6630,15 +6627,15 @@
         <v>53</v>
       </c>
       <c r="R69" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="85" t="s">
+        <v>167</v>
+      </c>
+      <c r="B70" s="306" t="s">
         <v>168</v>
-      </c>
-      <c r="B70" s="306" t="s">
-        <v>169</v>
       </c>
       <c r="C70" s="81">
         <v>1</v>
@@ -6659,7 +6656,7 @@
         <v>4</v>
       </c>
       <c r="I70" s="87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J70" s="185" t="s">
         <v>56</v>
@@ -6667,7 +6664,7 @@
       <c r="K70" s="81"/>
       <c r="L70" s="81"/>
       <c r="M70" s="81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N70" s="81"/>
       <c r="O70" s="81"/>
@@ -6676,15 +6673,15 @@
         <v>53</v>
       </c>
       <c r="R70" s="205" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="B71" s="306" t="s">
         <v>171</v>
-      </c>
-      <c r="B71" s="306" t="s">
-        <v>172</v>
       </c>
       <c r="C71" s="81">
         <v>1</v>
@@ -6705,34 +6702,34 @@
         <v>4</v>
       </c>
       <c r="I71" s="83" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J71" s="185" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K71" s="81"/>
       <c r="L71" s="81"/>
       <c r="M71" s="88"/>
       <c r="N71" s="81"/>
       <c r="O71" s="81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P71" s="81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q71" s="123" t="s">
         <v>53</v>
       </c>
       <c r="R71" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" s="306" t="s">
         <v>175</v>
-      </c>
-      <c r="B72" s="306" t="s">
-        <v>176</v>
       </c>
       <c r="C72" s="81">
         <v>1</v>
@@ -6753,34 +6750,34 @@
         <v>4</v>
       </c>
       <c r="I72" s="83" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J72" s="185" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K72" s="81"/>
       <c r="L72" s="81"/>
       <c r="M72" s="88"/>
       <c r="N72" s="81"/>
       <c r="O72" s="81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P72" s="81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q72" s="123" t="s">
         <v>53</v>
       </c>
       <c r="R72" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="79" t="s">
+        <v>176</v>
+      </c>
+      <c r="B73" s="306" t="s">
         <v>177</v>
-      </c>
-      <c r="B73" s="306" t="s">
-        <v>178</v>
       </c>
       <c r="C73" s="81">
         <v>0</v>
@@ -6801,10 +6798,10 @@
         <v>3</v>
       </c>
       <c r="I73" s="83" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J73" s="318" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K73" s="81"/>
       <c r="L73" s="81"/>
@@ -6822,15 +6819,15 @@
         <v>53</v>
       </c>
       <c r="R73" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="B74" s="307" t="s">
         <v>180</v>
-      </c>
-      <c r="B74" s="307" t="s">
-        <v>181</v>
       </c>
       <c r="C74" s="81">
         <v>2</v>
@@ -6854,7 +6851,7 @@
         <v>6</v>
       </c>
       <c r="J74" s="88" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K74" s="81"/>
       <c r="L74" s="81"/>
@@ -6868,15 +6865,15 @@
         <v>53</v>
       </c>
       <c r="R74" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B75" s="307" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C75" s="81">
         <v>0</v>
@@ -6914,15 +6911,15 @@
         <v>53</v>
       </c>
       <c r="R75" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="85" t="s">
+        <v>183</v>
+      </c>
+      <c r="B76" s="305" t="s">
         <v>184</v>
-      </c>
-      <c r="B76" s="305" t="s">
-        <v>185</v>
       </c>
       <c r="C76" s="81">
         <v>2</v>
@@ -6946,7 +6943,7 @@
         <v>5</v>
       </c>
       <c r="J76" s="88" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K76" s="81"/>
       <c r="L76" s="81"/>
@@ -6960,15 +6957,15 @@
         <v>53</v>
       </c>
       <c r="R76" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:18" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="85" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B77" s="305" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C77" s="81">
         <v>0</v>
@@ -6992,7 +6989,7 @@
         <v>5</v>
       </c>
       <c r="J77" s="185" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K77" s="81"/>
       <c r="L77" s="81"/>
@@ -7006,15 +7003,15 @@
         <v>53</v>
       </c>
       <c r="R77" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="85" t="s">
+        <v>188</v>
+      </c>
+      <c r="B78" s="305" t="s">
         <v>189</v>
-      </c>
-      <c r="B78" s="305" t="s">
-        <v>190</v>
       </c>
       <c r="C78" s="81">
         <v>2</v>
@@ -7035,7 +7032,7 @@
         <v>5</v>
       </c>
       <c r="I78" s="83" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J78" s="185" t="s">
         <v>92</v>
@@ -7054,15 +7051,15 @@
         <v>53</v>
       </c>
       <c r="R78" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="B79" s="305" t="s">
         <v>192</v>
-      </c>
-      <c r="B79" s="305" t="s">
-        <v>193</v>
       </c>
       <c r="C79" s="81">
         <v>0</v>
@@ -7083,36 +7080,36 @@
         <v>5</v>
       </c>
       <c r="I79" s="87" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J79" s="88"/>
       <c r="K79" s="81"/>
       <c r="L79" s="81"/>
       <c r="M79" s="81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N79" s="81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O79" s="81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P79" s="81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q79" s="123" t="s">
         <v>53</v>
       </c>
       <c r="R79" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="B80" s="305" t="s">
         <v>196</v>
-      </c>
-      <c r="B80" s="305" t="s">
-        <v>197</v>
       </c>
       <c r="C80" s="81">
         <v>1</v>
@@ -7133,7 +7130,7 @@
         <v>2</v>
       </c>
       <c r="I80" s="83" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J80" s="185" t="s">
         <v>34</v>
@@ -7141,7 +7138,7 @@
       <c r="K80" s="81"/>
       <c r="L80" s="81"/>
       <c r="M80" s="81" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N80" s="81"/>
       <c r="O80" s="81"/>
@@ -7150,15 +7147,15 @@
         <v>65</v>
       </c>
       <c r="R80" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="79" t="s">
+        <v>198</v>
+      </c>
+      <c r="B81" s="305" t="s">
         <v>199</v>
-      </c>
-      <c r="B81" s="305" t="s">
-        <v>200</v>
       </c>
       <c r="C81" s="81">
         <v>2</v>
@@ -7179,34 +7176,34 @@
         <v>4</v>
       </c>
       <c r="I81" s="83" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J81" s="185" t="s">
         <v>34</v>
       </c>
       <c r="K81" s="81"/>
       <c r="L81" s="81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M81" s="81"/>
       <c r="N81" s="81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O81" s="81"/>
       <c r="P81" s="81"/>
       <c r="Q81" s="321" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R81" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="79" t="s">
+        <v>203</v>
+      </c>
+      <c r="B82" s="305" t="s">
         <v>204</v>
-      </c>
-      <c r="B82" s="305" t="s">
-        <v>205</v>
       </c>
       <c r="C82" s="81">
         <v>2</v>
@@ -7227,10 +7224,10 @@
         <v>3</v>
       </c>
       <c r="I82" s="83" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J82" s="185" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K82" s="81"/>
       <c r="L82" s="81"/>
@@ -7241,18 +7238,18 @@
       </c>
       <c r="P82" s="81"/>
       <c r="Q82" s="321" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R82" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="B83" s="308" t="s">
         <v>207</v>
-      </c>
-      <c r="B83" s="308" t="s">
-        <v>208</v>
       </c>
       <c r="C83" s="81">
         <v>2</v>
@@ -7276,7 +7273,7 @@
         <v>3.5</v>
       </c>
       <c r="J83" s="88" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K83" s="81"/>
       <c r="L83" s="81"/>
@@ -7292,15 +7289,15 @@
         <v>65</v>
       </c>
       <c r="R83" s="205" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="85" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B84" s="305" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C84" s="81">
         <v>0</v>
@@ -7340,15 +7337,15 @@
         <v>65</v>
       </c>
       <c r="R84" s="205" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="85" t="s">
+        <v>211</v>
+      </c>
+      <c r="B85" s="305" t="s">
         <v>212</v>
-      </c>
-      <c r="B85" s="305" t="s">
-        <v>213</v>
       </c>
       <c r="C85" s="81">
         <v>2</v>
@@ -7372,7 +7369,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="J85" s="88" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K85" s="81"/>
       <c r="L85" s="81"/>
@@ -7388,15 +7385,15 @@
         <v>65</v>
       </c>
       <c r="R85" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="85" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B86" s="305" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C86" s="81">
         <v>0</v>
@@ -7420,7 +7417,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="J86" s="88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K86" s="81"/>
       <c r="L86" s="81"/>
@@ -7436,15 +7433,15 @@
         <v>65</v>
       </c>
       <c r="R86" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="85" t="s">
+        <v>215</v>
+      </c>
+      <c r="B87" s="305" t="s">
         <v>216</v>
-      </c>
-      <c r="B87" s="305" t="s">
-        <v>217</v>
       </c>
       <c r="C87" s="81">
         <v>2</v>
@@ -7480,15 +7477,15 @@
         <v>65</v>
       </c>
       <c r="R87" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:18" ht="28" x14ac:dyDescent="0.2">
       <c r="A88" s="85" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B88" s="305" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C88" s="81">
         <v>0</v>
@@ -7512,7 +7509,7 @@
         <v>6</v>
       </c>
       <c r="J88" s="88" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K88" s="81"/>
       <c r="L88" s="81"/>
@@ -7526,15 +7523,15 @@
         <v>65</v>
       </c>
       <c r="R88" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="B89" s="308" t="s">
         <v>220</v>
-      </c>
-      <c r="B89" s="308" t="s">
-        <v>221</v>
       </c>
       <c r="C89" s="81">
         <v>2</v>
@@ -7558,7 +7555,7 @@
         <v>5</v>
       </c>
       <c r="J89" s="88" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K89" s="81"/>
       <c r="L89" s="81"/>
@@ -7572,15 +7569,15 @@
         <v>65</v>
       </c>
       <c r="R89" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B90" s="308" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C90" s="81">
         <v>0</v>
@@ -7604,7 +7601,7 @@
         <v>5</v>
       </c>
       <c r="J90" s="88" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K90" s="81"/>
       <c r="L90" s="81"/>
@@ -7618,15 +7615,15 @@
         <v>65</v>
       </c>
       <c r="R90" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="85" t="s">
+        <v>224</v>
+      </c>
+      <c r="B91" s="305" t="s">
         <v>225</v>
-      </c>
-      <c r="B91" s="305" t="s">
-        <v>226</v>
       </c>
       <c r="C91" s="81">
         <v>2</v>
@@ -7650,7 +7647,7 @@
         <v>3</v>
       </c>
       <c r="J91" s="88" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K91" s="81"/>
       <c r="L91" s="81"/>
@@ -7664,15 +7661,15 @@
         <v>65</v>
       </c>
       <c r="R91" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="85" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B92" s="305" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C92" s="81">
         <v>0</v>
@@ -7708,15 +7705,15 @@
         <v>65</v>
       </c>
       <c r="R92" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="79" t="s">
+        <v>228</v>
+      </c>
+      <c r="B93" s="305" t="s">
         <v>229</v>
-      </c>
-      <c r="B93" s="305" t="s">
-        <v>230</v>
       </c>
       <c r="C93" s="81">
         <v>2</v>
@@ -7740,7 +7737,7 @@
         <v>4</v>
       </c>
       <c r="J93" s="185" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K93" s="81"/>
       <c r="L93" s="81"/>
@@ -7754,15 +7751,15 @@
         <v>65</v>
       </c>
       <c r="R93" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="79" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B94" s="305" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C94" s="81">
         <v>0</v>
@@ -7798,15 +7795,15 @@
         <v>65</v>
       </c>
       <c r="R94" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="79" t="s">
+        <v>232</v>
+      </c>
+      <c r="B95" s="306" t="s">
         <v>233</v>
-      </c>
-      <c r="B95" s="306" t="s">
-        <v>234</v>
       </c>
       <c r="C95" s="81">
         <v>2</v>
@@ -7827,7 +7824,7 @@
         <v>5</v>
       </c>
       <c r="I95" s="87" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J95" s="88"/>
       <c r="K95" s="81"/>
@@ -7844,15 +7841,15 @@
         <v>53</v>
       </c>
       <c r="R95" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="79" t="s">
+        <v>234</v>
+      </c>
+      <c r="B96" s="309" t="s">
         <v>235</v>
-      </c>
-      <c r="B96" s="309" t="s">
-        <v>236</v>
       </c>
       <c r="C96" s="81">
         <v>2</v>
@@ -7873,7 +7870,7 @@
         <v>5</v>
       </c>
       <c r="I96" s="81" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J96" s="138" t="s">
         <v>51</v>
@@ -7894,15 +7891,15 @@
         <v>53</v>
       </c>
       <c r="R96" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="79" t="s">
+        <v>237</v>
+      </c>
+      <c r="B97" s="310" t="s">
         <v>238</v>
-      </c>
-      <c r="B97" s="310" t="s">
-        <v>239</v>
       </c>
       <c r="C97" s="81">
         <v>1</v>
@@ -7926,29 +7923,29 @@
         <v>5</v>
       </c>
       <c r="J97" s="138" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K97" s="81"/>
       <c r="L97" s="81"/>
       <c r="M97" s="81"/>
       <c r="N97" s="81"/>
       <c r="O97" s="81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P97" s="81"/>
       <c r="Q97" s="123" t="s">
         <v>65</v>
       </c>
       <c r="R97" s="205" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="195" t="s">
+        <v>239</v>
+      </c>
+      <c r="B98" s="311" t="s">
         <v>240</v>
-      </c>
-      <c r="B98" s="311" t="s">
-        <v>241</v>
       </c>
       <c r="C98" s="81">
         <v>0</v>
@@ -7972,7 +7969,7 @@
         <v>4</v>
       </c>
       <c r="J98" s="138" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K98" s="81"/>
       <c r="L98" s="81"/>
@@ -7986,15 +7983,15 @@
         <v>53</v>
       </c>
       <c r="R98" s="312" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="79" t="s">
+        <v>242</v>
+      </c>
+      <c r="B99" s="310" t="s">
         <v>243</v>
-      </c>
-      <c r="B99" s="310" t="s">
-        <v>244</v>
       </c>
       <c r="C99" s="81">
         <v>2</v>
@@ -8018,7 +8015,7 @@
         <v>5</v>
       </c>
       <c r="J99" s="185" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K99" s="81"/>
       <c r="L99" s="81"/>
@@ -8032,15 +8029,15 @@
         <v>53</v>
       </c>
       <c r="R99" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:18" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="79" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B100" s="310" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C100" s="81">
         <v>0</v>
@@ -8064,7 +8061,7 @@
         <v>5</v>
       </c>
       <c r="J100" s="185" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K100" s="81"/>
       <c r="L100" s="81"/>
@@ -8078,15 +8075,15 @@
         <v>53</v>
       </c>
       <c r="R100" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="79" t="s">
+        <v>246</v>
+      </c>
+      <c r="B101" s="310" t="s">
         <v>247</v>
-      </c>
-      <c r="B101" s="310" t="s">
-        <v>248</v>
       </c>
       <c r="C101" s="81">
         <v>1</v>
@@ -8115,7 +8112,7 @@
       <c r="K101" s="81"/>
       <c r="L101" s="81"/>
       <c r="M101" s="81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N101" s="81"/>
       <c r="O101" s="4"/>
@@ -8124,15 +8121,15 @@
         <v>53</v>
       </c>
       <c r="R101" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="79" t="s">
+        <v>248</v>
+      </c>
+      <c r="B102" s="310" t="s">
         <v>249</v>
-      </c>
-      <c r="B102" s="310" t="s">
-        <v>250</v>
       </c>
       <c r="C102" s="81">
         <v>2</v>
@@ -8153,7 +8150,7 @@
         <v>5</v>
       </c>
       <c r="I102" s="81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J102" s="144"/>
       <c r="K102" s="81"/>
@@ -8174,15 +8171,15 @@
         <v>53</v>
       </c>
       <c r="R102" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="79" t="s">
+        <v>250</v>
+      </c>
+      <c r="B103" s="125" t="s">
         <v>251</v>
-      </c>
-      <c r="B103" s="125" t="s">
-        <v>252</v>
       </c>
       <c r="C103" s="81">
         <v>0</v>
@@ -8212,25 +8209,25 @@
       <c r="L103" s="81"/>
       <c r="M103" s="81"/>
       <c r="N103" s="81" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O103" s="4"/>
       <c r="P103" s="81" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q103" s="123" t="s">
         <v>65</v>
       </c>
       <c r="R103" s="200" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="275" t="s">
+        <v>253</v>
+      </c>
+      <c r="B104" s="276" t="s">
         <v>254</v>
-      </c>
-      <c r="B104" s="276" t="s">
-        <v>255</v>
       </c>
       <c r="C104" s="277">
         <v>2</v>
@@ -8268,13 +8265,13 @@
         <v>53</v>
       </c>
       <c r="R104" s="279" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105" spans="1:18" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="223"/>
       <c r="B105" s="282" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C105" s="188"/>
       <c r="D105" s="283"/>
@@ -8304,7 +8301,7 @@
     <row r="106" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A106" s="181"/>
       <c r="B106" s="213" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C106" s="182"/>
       <c r="D106" s="225"/>
@@ -8332,7 +8329,7 @@
     <row r="107" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="258"/>
       <c r="B107" s="146" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C107" s="286"/>
       <c r="D107" s="286"/>
@@ -8358,7 +8355,7 @@
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="242"/>
       <c r="B108" s="243" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C108" s="244"/>
       <c r="D108" s="244"/>
@@ -8395,7 +8392,7 @@
     <row r="109" spans="1:18" ht="45" x14ac:dyDescent="0.2">
       <c r="A109" s="250"/>
       <c r="B109" s="251" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C109" s="252"/>
       <c r="D109" s="252"/>
@@ -8414,7 +8411,7 @@
       <c r="M109" s="255"/>
       <c r="N109" s="255"/>
       <c r="O109" s="256" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P109" s="255"/>
       <c r="Q109" s="254"/>
@@ -8423,7 +8420,7 @@
     <row r="110" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="258"/>
       <c r="B110" s="146" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C110" s="259"/>
       <c r="D110" s="259"/>
@@ -8459,7 +8456,7 @@
     <row r="111" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A111" s="85"/>
       <c r="B111" s="153" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C111" s="82"/>
       <c r="D111" s="82"/>
@@ -8488,10 +8485,10 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="157" t="s">
+        <v>262</v>
+      </c>
+      <c r="B112" s="153" t="s">
         <v>263</v>
-      </c>
-      <c r="B112" s="153" t="s">
-        <v>264</v>
       </c>
       <c r="C112" s="82"/>
       <c r="D112" s="82"/>
@@ -8519,7 +8516,7 @@
     <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" s="50"/>
       <c r="B113" s="47" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C113" s="57"/>
       <c r="D113" s="57"/>
@@ -8553,7 +8550,7 @@
     <row r="114" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="59"/>
       <c r="B114" s="71" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C114" s="60"/>
       <c r="D114" s="60"/>
@@ -8577,26 +8574,26 @@
     <row r="115" spans="1:18" ht="11.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" s="68" t="s">
+        <v>266</v>
+      </c>
+      <c r="B116" s="68" t="s">
         <v>267</v>
-      </c>
-      <c r="B116" s="68" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" s="68" t="s">
+        <v>268</v>
+      </c>
+      <c r="B117" s="68" t="s">
         <v>269</v>
-      </c>
-      <c r="B117" s="68" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" s="68" t="s">
+        <v>270</v>
+      </c>
+      <c r="B118" s="68" t="s">
         <v>271</v>
-      </c>
-      <c r="B118" s="68" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.2">
@@ -8620,7 +8617,7 @@
         <v>53</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.2">
@@ -8628,7 +8625,7 @@
         <v>38</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.2">
@@ -8636,7 +8633,7 @@
         <v>65</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.2">
@@ -8646,7 +8643,7 @@
     <row r="127" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" s="332" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B128" s="333"/>
       <c r="C128" s="333"/>
@@ -8688,7 +8685,7 @@
     </row>
     <row r="130" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="337" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B130" s="337"/>
       <c r="C130" s="337"/>
@@ -8711,7 +8708,7 @@
     <row r="131" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="132" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="334" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B132" s="334"/>
       <c r="C132" s="334"/>
@@ -8733,7 +8730,7 @@
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" s="335" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B133" s="336"/>
       <c r="C133" s="336"/>
@@ -8756,7 +8753,7 @@
     <row r="134" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" s="326" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B135" s="326"/>
       <c r="C135" s="326"/>
@@ -8775,7 +8772,7 @@
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" s="325" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B136" s="326"/>
       <c r="C136" s="326"/>
@@ -8800,7 +8797,7 @@
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138" s="324" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B138" s="324"/>
       <c r="C138" s="324"/>
@@ -8933,7 +8930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V76" sqref="V76"/>
     </sheetView>
   </sheetViews>
@@ -8960,7 +8957,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="341" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B1" s="329"/>
       <c r="C1" s="329"/>
@@ -9076,7 +9073,7 @@
     </row>
     <row r="7" spans="1:22" ht="287.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="344" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B7" s="345"/>
       <c r="C7" s="345"/>
@@ -10444,10 +10441,10 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="75" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B43" s="128" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C43" s="101">
         <v>2</v>
@@ -10471,7 +10468,7 @@
         <v>3</v>
       </c>
       <c r="J43" s="220" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K43" s="95"/>
       <c r="L43" s="124"/>
@@ -10487,10 +10484,10 @@
     </row>
     <row r="44" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="75" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B44" s="125" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="123">
         <v>0</v>
@@ -10530,7 +10527,7 @@
     </row>
     <row r="45" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="75" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B45" s="125" t="s">
         <v>108</v>
@@ -10573,7 +10570,7 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="75" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B46" s="125" t="s">
         <v>110</v>
@@ -10600,7 +10597,7 @@
         <v>3</v>
       </c>
       <c r="J46" s="220" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K46" s="124"/>
       <c r="L46" s="124"/>
@@ -10616,7 +10613,7 @@
     </row>
     <row r="47" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="75" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B47" s="125" t="s">
         <v>110</v>
@@ -10659,7 +10656,7 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="75" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B48" s="125" t="s">
         <v>114</v>
@@ -10686,7 +10683,7 @@
         <v>3</v>
       </c>
       <c r="J48" s="220" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K48" s="124"/>
       <c r="L48" s="124"/>
@@ -10702,7 +10699,7 @@
     </row>
     <row r="49" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="75" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B49" s="125" t="s">
         <v>114</v>
@@ -10745,10 +10742,10 @@
     </row>
     <row r="50" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="75" t="s">
+        <v>294</v>
+      </c>
+      <c r="B50" s="125" t="s">
         <v>295</v>
-      </c>
-      <c r="B50" s="125" t="s">
-        <v>296</v>
       </c>
       <c r="C50" s="123">
         <v>2</v>
@@ -10772,7 +10769,7 @@
         <v>4</v>
       </c>
       <c r="J50" s="220" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K50" s="124"/>
       <c r="L50" s="124"/>
@@ -10788,10 +10785,10 @@
     </row>
     <row r="51" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="75" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B51" s="125" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C51" s="123">
         <v>0</v>
@@ -10815,7 +10812,7 @@
         <v>4</v>
       </c>
       <c r="J51" s="220" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K51" s="124"/>
       <c r="L51" s="124"/>
@@ -10831,7 +10828,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="75" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B52" s="125" t="s">
         <v>118</v>
@@ -10858,7 +10855,7 @@
         <v>4</v>
       </c>
       <c r="J52" s="220" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K52" s="124"/>
       <c r="L52" s="124"/>
@@ -10874,7 +10871,7 @@
     </row>
     <row r="53" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="75" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B53" s="125" t="s">
         <v>118</v>
@@ -10901,7 +10898,7 @@
         <v>4</v>
       </c>
       <c r="J53" s="220" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K53" s="124"/>
       <c r="L53" s="124"/>
@@ -10917,10 +10914,10 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="77" t="s">
+        <v>302</v>
+      </c>
+      <c r="B54" s="127" t="s">
         <v>303</v>
-      </c>
-      <c r="B54" s="127" t="s">
-        <v>304</v>
       </c>
       <c r="C54" s="123">
         <v>1</v>
@@ -10944,13 +10941,13 @@
         <v>4</v>
       </c>
       <c r="J54" s="220" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K54" s="124"/>
       <c r="L54" s="124"/>
       <c r="M54" s="94"/>
       <c r="N54" s="123" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O54" s="124"/>
       <c r="P54" s="124"/>
@@ -10960,10 +10957,10 @@
     </row>
     <row r="55" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="B55" s="125" t="s">
         <v>305</v>
-      </c>
-      <c r="B55" s="125" t="s">
-        <v>306</v>
       </c>
       <c r="C55" s="123">
         <v>1</v>
@@ -10987,13 +10984,13 @@
         <v>4</v>
       </c>
       <c r="J55" s="220" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K55" s="124"/>
       <c r="L55" s="124"/>
       <c r="M55" s="94"/>
       <c r="N55" s="123" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O55" s="124"/>
       <c r="P55" s="124"/>
@@ -11003,10 +11000,10 @@
     </row>
     <row r="56" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="75" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B56" s="125" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C56" s="123">
         <v>2</v>
@@ -11030,7 +11027,7 @@
         <v>4</v>
       </c>
       <c r="J56" s="220" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K56" s="124"/>
       <c r="L56" s="124"/>
@@ -11046,10 +11043,10 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="75" t="s">
+        <v>307</v>
+      </c>
+      <c r="B57" s="125" t="s">
         <v>308</v>
-      </c>
-      <c r="B57" s="125" t="s">
-        <v>309</v>
       </c>
       <c r="C57" s="123">
         <v>2</v>
@@ -11073,7 +11070,7 @@
         <v>5</v>
       </c>
       <c r="J57" s="220" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K57" s="124"/>
       <c r="L57" s="124"/>
@@ -11089,10 +11086,10 @@
     </row>
     <row r="58" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="75" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B58" s="125" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C58" s="123">
         <v>0</v>
@@ -11132,10 +11129,10 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="75" t="s">
+        <v>311</v>
+      </c>
+      <c r="B59" s="125" t="s">
         <v>312</v>
-      </c>
-      <c r="B59" s="125" t="s">
-        <v>313</v>
       </c>
       <c r="C59" s="123">
         <v>2</v>
@@ -11159,7 +11156,7 @@
         <v>5</v>
       </c>
       <c r="J59" s="220" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K59" s="124"/>
       <c r="L59" s="124"/>
@@ -11175,10 +11172,10 @@
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="75" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B60" s="125" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C60" s="123">
         <v>0</v>
@@ -11202,7 +11199,7 @@
         <v>5</v>
       </c>
       <c r="J60" s="123" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K60" s="124"/>
       <c r="L60" s="124"/>
@@ -11218,10 +11215,10 @@
     </row>
     <row r="61" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="158" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B61" s="159" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C61" s="136">
         <v>1</v>
@@ -11245,7 +11242,7 @@
         <v>5</v>
       </c>
       <c r="J61" s="221" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K61" s="137"/>
       <c r="L61" s="137"/>
@@ -11280,7 +11277,7 @@
     </row>
     <row r="63" spans="1:18" ht="26" x14ac:dyDescent="0.2">
       <c r="A63" s="328" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B63" s="327"/>
       <c r="C63" s="327"/>
@@ -11373,15 +11370,15 @@
         <v>19</v>
       </c>
       <c r="R65" s="91" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="189" t="s">
+        <v>149</v>
+      </c>
+      <c r="B66" s="190" t="s">
         <v>150</v>
-      </c>
-      <c r="B66" s="190" t="s">
-        <v>151</v>
       </c>
       <c r="C66" s="191">
         <v>2</v>
@@ -11400,7 +11397,7 @@
         <v>2</v>
       </c>
       <c r="I66" s="193" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J66" s="217" t="s">
         <v>34</v>
@@ -11421,15 +11418,15 @@
         <v>53</v>
       </c>
       <c r="R66" s="199" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="26" x14ac:dyDescent="0.2">
       <c r="A67" s="85" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B67" s="131" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C67" s="86">
         <v>0</v>
@@ -11450,10 +11447,10 @@
         <v>3</v>
       </c>
       <c r="I67" s="87" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J67" s="185" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K67" s="81"/>
       <c r="L67" s="81"/>
@@ -11470,15 +11467,15 @@
         <v>53</v>
       </c>
       <c r="R67" s="200" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="79" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68" s="131" t="s">
         <v>156</v>
-      </c>
-      <c r="B68" s="131" t="s">
-        <v>157</v>
       </c>
       <c r="C68" s="86">
         <v>1</v>
@@ -11518,15 +11515,15 @@
         <v>53</v>
       </c>
       <c r="R68" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="B69" s="131" t="s">
         <v>159</v>
-      </c>
-      <c r="B69" s="131" t="s">
-        <v>160</v>
       </c>
       <c r="C69" s="86">
         <v>2</v>
@@ -11545,10 +11542,10 @@
         <v>2</v>
       </c>
       <c r="I69" s="87" t="s">
+        <v>160</v>
+      </c>
+      <c r="J69" s="88" t="s">
         <v>161</v>
-      </c>
-      <c r="J69" s="88" t="s">
-        <v>162</v>
       </c>
       <c r="K69" s="81"/>
       <c r="L69" s="81"/>
@@ -11562,15 +11559,15 @@
         <v>65</v>
       </c>
       <c r="R69" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="85" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B70" s="131" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C70" s="86">
         <v>0</v>
@@ -11591,7 +11588,7 @@
         <v>3</v>
       </c>
       <c r="I70" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J70" s="88" t="s">
         <v>69</v>
@@ -11608,15 +11605,15 @@
         <v>65</v>
       </c>
       <c r="R70" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="26" x14ac:dyDescent="0.2">
       <c r="A71" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" s="127" t="s">
         <v>164</v>
-      </c>
-      <c r="B71" s="127" t="s">
-        <v>165</v>
       </c>
       <c r="C71" s="86">
         <v>1</v>
@@ -11637,10 +11634,10 @@
         <v>3</v>
       </c>
       <c r="I71" s="87" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J71" s="185" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K71" s="81"/>
       <c r="L71" s="81"/>
@@ -11656,16 +11653,16 @@
         <v>53</v>
       </c>
       <c r="R71" s="200" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="85" t="s">
+        <v>167</v>
+      </c>
+      <c r="B72" s="127" t="s">
         <v>168</v>
       </c>
-      <c r="B72" s="127" t="s">
-        <v>169</v>
-      </c>
       <c r="C72" s="103">
         <v>1</v>
       </c>
@@ -11679,13 +11676,13 @@
         <v>1</v>
       </c>
       <c r="G72" s="81" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H72" s="81">
         <v>4</v>
       </c>
       <c r="I72" s="87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J72" s="185" t="s">
         <v>56</v>
@@ -11693,7 +11690,7 @@
       <c r="K72" s="81"/>
       <c r="L72" s="81"/>
       <c r="M72" s="81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N72" s="81"/>
       <c r="O72" s="81"/>
@@ -11702,15 +11699,15 @@
         <v>53</v>
       </c>
       <c r="R72" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="B73" s="127" t="s">
         <v>171</v>
-      </c>
-      <c r="B73" s="127" t="s">
-        <v>172</v>
       </c>
       <c r="C73" s="103">
         <v>1</v>
@@ -11731,34 +11728,34 @@
         <v>4</v>
       </c>
       <c r="I73" s="83" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J73" s="185" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K73" s="81"/>
       <c r="L73" s="81"/>
       <c r="M73" s="88"/>
       <c r="N73" s="81"/>
       <c r="O73" s="81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P73" s="81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q73" s="201" t="s">
         <v>53</v>
       </c>
       <c r="R73" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="B74" s="127" t="s">
         <v>175</v>
-      </c>
-      <c r="B74" s="127" t="s">
-        <v>176</v>
       </c>
       <c r="C74" s="103">
         <v>1</v>
@@ -11779,34 +11776,34 @@
         <v>4</v>
       </c>
       <c r="I74" s="83" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J74" s="185" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K74" s="81"/>
       <c r="L74" s="81"/>
       <c r="M74" s="88"/>
       <c r="N74" s="81"/>
       <c r="O74" s="81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P74" s="81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q74" s="201" t="s">
         <v>53</v>
       </c>
       <c r="R74" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="79" t="s">
+        <v>176</v>
+      </c>
+      <c r="B75" s="127" t="s">
         <v>177</v>
-      </c>
-      <c r="B75" s="127" t="s">
-        <v>178</v>
       </c>
       <c r="C75" s="103">
         <v>0</v>
@@ -11827,10 +11824,10 @@
         <v>3</v>
       </c>
       <c r="I75" s="83" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J75" s="301" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K75" s="81"/>
       <c r="L75" s="81"/>
@@ -11848,15 +11845,15 @@
         <v>53</v>
       </c>
       <c r="R75" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="B76" s="132" t="s">
         <v>180</v>
-      </c>
-      <c r="B76" s="132" t="s">
-        <v>181</v>
       </c>
       <c r="C76" s="86">
         <v>2</v>
@@ -11878,7 +11875,7 @@
         <v>6</v>
       </c>
       <c r="J76" s="88" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K76" s="81"/>
       <c r="L76" s="81"/>
@@ -11892,15 +11889,15 @@
         <v>53</v>
       </c>
       <c r="R76" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B77" s="132" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C77" s="86">
         <v>0</v>
@@ -11938,15 +11935,15 @@
         <v>53</v>
       </c>
       <c r="R77" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="85" t="s">
+        <v>183</v>
+      </c>
+      <c r="B78" s="131" t="s">
         <v>184</v>
-      </c>
-      <c r="B78" s="131" t="s">
-        <v>185</v>
       </c>
       <c r="C78" s="86">
         <v>2</v>
@@ -11968,7 +11965,7 @@
         <v>5</v>
       </c>
       <c r="J78" s="88" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K78" s="81"/>
       <c r="L78" s="81"/>
@@ -11982,15 +11979,15 @@
         <v>53</v>
       </c>
       <c r="R78" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="85" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B79" s="131" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C79" s="86">
         <v>0</v>
@@ -12014,7 +12011,7 @@
         <v>5</v>
       </c>
       <c r="J79" s="185" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K79" s="81"/>
       <c r="L79" s="81"/>
@@ -12028,15 +12025,15 @@
         <v>53</v>
       </c>
       <c r="R79" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="85" t="s">
+        <v>188</v>
+      </c>
+      <c r="B80" s="131" t="s">
         <v>189</v>
-      </c>
-      <c r="B80" s="131" t="s">
-        <v>190</v>
       </c>
       <c r="C80" s="86">
         <v>2</v>
@@ -12057,7 +12054,7 @@
         <v>5</v>
       </c>
       <c r="I80" s="83" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J80" s="185" t="s">
         <v>92</v>
@@ -12076,15 +12073,15 @@
         <v>53</v>
       </c>
       <c r="R80" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="B81" s="131" t="s">
         <v>192</v>
-      </c>
-      <c r="B81" s="131" t="s">
-        <v>193</v>
       </c>
       <c r="C81" s="86">
         <v>0</v>
@@ -12105,36 +12102,36 @@
         <v>5</v>
       </c>
       <c r="I81" s="87" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J81" s="88"/>
       <c r="K81" s="81"/>
       <c r="L81" s="81"/>
       <c r="M81" s="81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N81" s="81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O81" s="81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P81" s="81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q81" s="201" t="s">
         <v>53</v>
       </c>
       <c r="R81" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="B82" s="131" t="s">
         <v>196</v>
-      </c>
-      <c r="B82" s="131" t="s">
-        <v>197</v>
       </c>
       <c r="C82" s="86">
         <v>1</v>
@@ -12153,7 +12150,7 @@
         <v>2</v>
       </c>
       <c r="I82" s="83" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J82" s="185" t="s">
         <v>34</v>
@@ -12161,7 +12158,7 @@
       <c r="K82" s="81"/>
       <c r="L82" s="81"/>
       <c r="M82" s="81" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N82" s="81"/>
       <c r="O82" s="81"/>
@@ -12170,15 +12167,15 @@
         <v>65</v>
       </c>
       <c r="R82" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:18" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="79" t="s">
+        <v>198</v>
+      </c>
+      <c r="B83" s="131" t="s">
         <v>199</v>
-      </c>
-      <c r="B83" s="131" t="s">
-        <v>200</v>
       </c>
       <c r="C83" s="80">
         <v>2</v>
@@ -12197,34 +12194,34 @@
         <v>4</v>
       </c>
       <c r="I83" s="83" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J83" s="185" t="s">
         <v>34</v>
       </c>
       <c r="K83" s="81"/>
       <c r="L83" s="81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M83" s="81"/>
       <c r="N83" s="81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O83" s="81"/>
       <c r="P83" s="81"/>
       <c r="Q83" s="321" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R83" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="79" t="s">
+        <v>203</v>
+      </c>
+      <c r="B84" s="131" t="s">
         <v>204</v>
-      </c>
-      <c r="B84" s="131" t="s">
-        <v>205</v>
       </c>
       <c r="C84" s="80">
         <v>2</v>
@@ -12245,10 +12242,10 @@
         <v>3</v>
       </c>
       <c r="I84" s="83" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J84" s="185" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K84" s="81"/>
       <c r="L84" s="81"/>
@@ -12259,18 +12256,18 @@
       </c>
       <c r="P84" s="81"/>
       <c r="Q84" s="321" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R84" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="85" t="s">
+        <v>211</v>
+      </c>
+      <c r="B85" s="131" t="s">
         <v>212</v>
-      </c>
-      <c r="B85" s="131" t="s">
-        <v>213</v>
       </c>
       <c r="C85" s="80">
         <v>2</v>
@@ -12292,7 +12289,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="J85" s="88" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K85" s="81"/>
       <c r="L85" s="81"/>
@@ -12308,15 +12305,15 @@
         <v>65</v>
       </c>
       <c r="R85" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="85" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B86" s="131" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C86" s="80">
         <v>0</v>
@@ -12340,7 +12337,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="J86" s="88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K86" s="81"/>
       <c r="L86" s="81"/>
@@ -12356,15 +12353,15 @@
         <v>65</v>
       </c>
       <c r="R86" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="85" t="s">
+        <v>215</v>
+      </c>
+      <c r="B87" s="131" t="s">
         <v>216</v>
-      </c>
-      <c r="B87" s="131" t="s">
-        <v>217</v>
       </c>
       <c r="C87" s="86">
         <v>2</v>
@@ -12398,15 +12395,15 @@
         <v>65</v>
       </c>
       <c r="R87" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="85" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B88" s="131" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C88" s="86">
         <v>0</v>
@@ -12430,7 +12427,7 @@
         <v>6</v>
       </c>
       <c r="J88" s="88" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K88" s="81"/>
       <c r="L88" s="81"/>
@@ -12444,15 +12441,15 @@
         <v>65</v>
       </c>
       <c r="R88" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="85" t="s">
+        <v>219</v>
+      </c>
+      <c r="B89" s="133" t="s">
         <v>220</v>
-      </c>
-      <c r="B89" s="133" t="s">
-        <v>221</v>
       </c>
       <c r="C89" s="86">
         <v>2</v>
@@ -12474,7 +12471,7 @@
         <v>5</v>
       </c>
       <c r="J89" s="88" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K89" s="81"/>
       <c r="L89" s="81"/>
@@ -12488,15 +12485,15 @@
         <v>65</v>
       </c>
       <c r="R89" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="26" x14ac:dyDescent="0.2">
       <c r="A90" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B90" s="133" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C90" s="86">
         <v>0</v>
@@ -12520,7 +12517,7 @@
         <v>5</v>
       </c>
       <c r="J90" s="88" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K90" s="81"/>
       <c r="L90" s="81"/>
@@ -12534,15 +12531,15 @@
         <v>65</v>
       </c>
       <c r="R90" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="85" t="s">
+        <v>224</v>
+      </c>
+      <c r="B91" s="131" t="s">
         <v>225</v>
-      </c>
-      <c r="B91" s="131" t="s">
-        <v>226</v>
       </c>
       <c r="C91" s="86">
         <v>2</v>
@@ -12564,7 +12561,7 @@
         <v>3</v>
       </c>
       <c r="J91" s="88" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K91" s="81"/>
       <c r="L91" s="81"/>
@@ -12578,15 +12575,15 @@
         <v>65</v>
       </c>
       <c r="R91" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="85" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B92" s="131" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C92" s="86">
         <v>0</v>
@@ -12622,15 +12619,15 @@
         <v>65</v>
       </c>
       <c r="R92" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="79" t="s">
+        <v>228</v>
+      </c>
+      <c r="B93" s="131" t="s">
         <v>229</v>
-      </c>
-      <c r="B93" s="131" t="s">
-        <v>230</v>
       </c>
       <c r="C93" s="86">
         <v>2</v>
@@ -12652,7 +12649,7 @@
         <v>4</v>
       </c>
       <c r="J93" s="185" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K93" s="81"/>
       <c r="L93" s="81"/>
@@ -12666,15 +12663,15 @@
         <v>65</v>
       </c>
       <c r="R93" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="79" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B94" s="131" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C94" s="86">
         <v>0</v>
@@ -12710,15 +12707,15 @@
         <v>65</v>
       </c>
       <c r="R94" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="79" t="s">
+        <v>232</v>
+      </c>
+      <c r="B95" s="131" t="s">
         <v>233</v>
-      </c>
-      <c r="B95" s="131" t="s">
-        <v>234</v>
       </c>
       <c r="C95" s="86">
         <v>2</v>
@@ -12737,7 +12734,7 @@
         <v>5</v>
       </c>
       <c r="I95" s="87" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J95" s="88"/>
       <c r="K95" s="81"/>
@@ -12754,15 +12751,15 @@
         <v>53</v>
       </c>
       <c r="R95" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:18" s="173" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="195" t="s">
+        <v>234</v>
+      </c>
+      <c r="B96" s="196" t="s">
         <v>235</v>
-      </c>
-      <c r="B96" s="196" t="s">
-        <v>236</v>
       </c>
       <c r="C96" s="197">
         <v>2</v>
@@ -12781,7 +12778,7 @@
         <v>5</v>
       </c>
       <c r="I96" s="197" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J96" s="218" t="s">
         <v>51</v>
@@ -12802,15 +12799,15 @@
         <v>53</v>
       </c>
       <c r="R96" s="204" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97" spans="1:18" s="173" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="79" t="s">
+        <v>237</v>
+      </c>
+      <c r="B97" s="125" t="s">
         <v>238</v>
-      </c>
-      <c r="B97" s="125" t="s">
-        <v>239</v>
       </c>
       <c r="C97" s="81">
         <v>1</v>
@@ -12834,29 +12831,29 @@
         <v>5</v>
       </c>
       <c r="J97" s="138" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K97" s="81"/>
       <c r="L97" s="81"/>
       <c r="M97" s="81"/>
       <c r="N97" s="81"/>
       <c r="O97" s="81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P97" s="81"/>
       <c r="Q97" s="123" t="s">
         <v>65</v>
       </c>
       <c r="R97" s="200" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:18" s="173" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="206" t="s">
+        <v>239</v>
+      </c>
+      <c r="B98" s="207" t="s">
         <v>240</v>
-      </c>
-      <c r="B98" s="207" t="s">
-        <v>241</v>
       </c>
       <c r="C98" s="208">
         <v>0</v>
@@ -12880,7 +12877,7 @@
         <v>4</v>
       </c>
       <c r="J98" s="231" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K98" s="208"/>
       <c r="L98" s="208"/>
@@ -12894,15 +12891,15 @@
         <v>53</v>
       </c>
       <c r="R98" s="211" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99" spans="1:18" s="173" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="79" t="s">
+        <v>242</v>
+      </c>
+      <c r="B99" s="125" t="s">
         <v>243</v>
-      </c>
-      <c r="B99" s="125" t="s">
-        <v>244</v>
       </c>
       <c r="C99" s="81">
         <v>2</v>
@@ -12924,7 +12921,7 @@
         <v>5</v>
       </c>
       <c r="J99" s="185" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K99" s="81"/>
       <c r="L99" s="81"/>
@@ -12938,15 +12935,15 @@
         <v>53</v>
       </c>
       <c r="R99" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:18" s="173" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="195" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B100" s="230" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C100" s="197">
         <v>0</v>
@@ -12968,7 +12965,7 @@
         <v>5</v>
       </c>
       <c r="J100" s="222" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K100" s="197"/>
       <c r="L100" s="197"/>
@@ -12982,15 +12979,15 @@
         <v>53</v>
       </c>
       <c r="R100" s="204" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:18" s="173" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="79" t="s">
+        <v>246</v>
+      </c>
+      <c r="B101" s="125" t="s">
         <v>247</v>
-      </c>
-      <c r="B101" s="125" t="s">
-        <v>248</v>
       </c>
       <c r="C101" s="81">
         <v>1</v>
@@ -13017,7 +13014,7 @@
       <c r="K101" s="81"/>
       <c r="L101" s="81"/>
       <c r="M101" s="81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N101" s="81"/>
       <c r="O101" s="4"/>
@@ -13026,15 +13023,15 @@
         <v>53</v>
       </c>
       <c r="R101" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="173" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="79" t="s">
+        <v>248</v>
+      </c>
+      <c r="B102" s="125" t="s">
         <v>249</v>
-      </c>
-      <c r="B102" s="125" t="s">
-        <v>250</v>
       </c>
       <c r="C102" s="81">
         <v>2</v>
@@ -13053,7 +13050,7 @@
         <v>5</v>
       </c>
       <c r="I102" s="81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J102" s="144"/>
       <c r="K102" s="81"/>
@@ -13074,15 +13071,15 @@
         <v>53</v>
       </c>
       <c r="R102" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103" spans="1:18" s="173" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="79" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B103" s="125" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C103" s="81">
         <v>0</v>
@@ -13112,25 +13109,25 @@
       <c r="L103" s="81"/>
       <c r="M103" s="81"/>
       <c r="N103" s="81" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O103" s="4"/>
       <c r="P103" s="81" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q103" s="123" t="s">
         <v>65</v>
       </c>
       <c r="R103" s="200" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104" spans="1:18" s="173" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A104" s="275" t="s">
+        <v>253</v>
+      </c>
+      <c r="B104" s="276" t="s">
         <v>254</v>
-      </c>
-      <c r="B104" s="276" t="s">
-        <v>255</v>
       </c>
       <c r="C104" s="277">
         <v>2</v>
@@ -13168,13 +13165,13 @@
         <v>53</v>
       </c>
       <c r="R104" s="279" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A105" s="289"/>
       <c r="B105" s="282" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C105" s="290"/>
       <c r="D105" s="290"/>
@@ -13202,7 +13199,7 @@
     <row r="106" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="212"/>
       <c r="B106" s="213" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C106" s="232"/>
       <c r="D106" s="232"/>
@@ -13230,7 +13227,7 @@
     <row r="107" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="270"/>
       <c r="B107" s="146" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C107" s="137"/>
       <c r="D107" s="137"/>
@@ -13256,7 +13253,7 @@
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="223"/>
       <c r="B108" s="265" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C108" s="266"/>
       <c r="D108" s="266"/>
@@ -13292,7 +13289,7 @@
     <row r="109" spans="1:18" ht="45" x14ac:dyDescent="0.2">
       <c r="A109" s="250"/>
       <c r="B109" s="251" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C109" s="252"/>
       <c r="D109" s="252"/>
@@ -13311,7 +13308,7 @@
       <c r="M109" s="255"/>
       <c r="N109" s="255"/>
       <c r="O109" s="256" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P109" s="255"/>
       <c r="Q109" s="254"/>
@@ -13320,7 +13317,7 @@
     <row r="110" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="270"/>
       <c r="B110" s="146" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C110" s="271"/>
       <c r="D110" s="271"/>
@@ -13356,7 +13353,7 @@
     <row r="111" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A111" s="151"/>
       <c r="B111" s="153" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C111" s="124"/>
       <c r="D111" s="124"/>
@@ -13385,10 +13382,10 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="157" t="s">
+        <v>262</v>
+      </c>
+      <c r="B112" s="153" t="s">
         <v>263</v>
-      </c>
-      <c r="B112" s="153" t="s">
-        <v>264</v>
       </c>
       <c r="C112" s="124"/>
       <c r="D112" s="124"/>
@@ -13416,7 +13413,7 @@
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" s="13"/>
       <c r="B113" s="49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C113" s="69"/>
       <c r="D113" s="69"/>
@@ -13452,7 +13449,7 @@
     <row r="114" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="16"/>
       <c r="B114" s="72" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C114" s="72"/>
       <c r="D114" s="72"/>
@@ -13475,27 +13472,27 @@
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116" s="68" t="s">
+        <v>266</v>
+      </c>
+      <c r="B116" s="68" t="s">
         <v>267</v>
-      </c>
-      <c r="B116" s="68" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="117" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="68" t="s">
+        <v>268</v>
+      </c>
+      <c r="B117" s="68" t="s">
         <v>269</v>
-      </c>
-      <c r="B117" s="68" t="s">
-        <v>270</v>
       </c>
       <c r="S117" s="113"/>
     </row>
     <row r="118" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="68" t="s">
+        <v>270</v>
+      </c>
+      <c r="B118" s="68" t="s">
         <v>271</v>
-      </c>
-      <c r="B118" s="68" t="s">
-        <v>272</v>
       </c>
       <c r="S118" s="113"/>
     </row>
@@ -13509,7 +13506,7 @@
         <v>53</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="S120" s="113"/>
     </row>
@@ -13518,7 +13515,7 @@
         <v>38</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S121" s="113"/>
     </row>
@@ -13527,7 +13524,7 @@
         <v>65</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.2">
@@ -13535,7 +13532,7 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" s="332" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B124" s="333"/>
       <c r="C124" s="333"/>
@@ -13577,7 +13574,7 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126" s="337" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B126" s="337"/>
       <c r="C126" s="337"/>
@@ -13600,7 +13597,7 @@
     <row r="127" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="128" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="334" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B128" s="334"/>
       <c r="C128" s="334"/>
@@ -13622,7 +13619,7 @@
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" s="335" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B129" s="336"/>
       <c r="C129" s="336"/>
@@ -13644,7 +13641,7 @@
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" s="326" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B131" s="326"/>
       <c r="C131" s="326"/>
@@ -13663,7 +13660,7 @@
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" s="325" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B132" s="326"/>
       <c r="C132" s="326"/>
@@ -13685,7 +13682,7 @@
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" s="324" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B134" s="324"/>
       <c r="C134" s="324"/>
@@ -13843,7 +13840,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="341" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B1" s="329"/>
       <c r="C1" s="329"/>
@@ -13921,7 +13918,7 @@
     </row>
     <row r="5" spans="1:18" ht="287.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="344" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5" s="345"/>
       <c r="C5" s="345"/>
@@ -15039,7 +15036,7 @@
         <v>5</v>
       </c>
       <c r="J33" s="186" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K33" s="94"/>
       <c r="L33" s="124"/>
@@ -15280,10 +15277,10 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="180" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B41" s="128" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C41" s="101">
         <v>1</v>
@@ -15312,7 +15309,7 @@
       <c r="K41" s="140"/>
       <c r="L41" s="140"/>
       <c r="M41" s="101" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N41" s="101"/>
       <c r="O41" s="101"/>
@@ -15323,10 +15320,10 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="77" t="s">
+        <v>323</v>
+      </c>
+      <c r="B42" s="130" t="s">
         <v>324</v>
-      </c>
-      <c r="B42" s="130" t="s">
-        <v>325</v>
       </c>
       <c r="C42" s="123">
         <v>2</v>
@@ -15366,10 +15363,10 @@
     </row>
     <row r="43" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="119" t="s">
+        <v>325</v>
+      </c>
+      <c r="B43" s="129" t="s">
         <v>326</v>
-      </c>
-      <c r="B43" s="129" t="s">
-        <v>327</v>
       </c>
       <c r="C43" s="123">
         <v>2</v>
@@ -15393,7 +15390,7 @@
         <v>3</v>
       </c>
       <c r="J43" s="220" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K43" s="66"/>
       <c r="L43" s="66"/>
@@ -15409,10 +15406,10 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="75" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B44" s="130" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C44" s="123">
         <v>0</v>
@@ -15452,10 +15449,10 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="75" t="s">
+        <v>329</v>
+      </c>
+      <c r="B45" s="130" t="s">
         <v>330</v>
-      </c>
-      <c r="B45" s="130" t="s">
-        <v>331</v>
       </c>
       <c r="C45" s="123">
         <v>0</v>
@@ -15495,10 +15492,10 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="75" t="s">
+        <v>331</v>
+      </c>
+      <c r="B46" s="125" t="s">
         <v>332</v>
-      </c>
-      <c r="B46" s="125" t="s">
-        <v>333</v>
       </c>
       <c r="C46" s="123">
         <v>2</v>
@@ -15522,7 +15519,7 @@
         <v>4</v>
       </c>
       <c r="J46" s="220" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K46" s="124"/>
       <c r="L46" s="124"/>
@@ -15538,10 +15535,10 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="75" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B47" s="125" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C47" s="123">
         <v>0</v>
@@ -15581,10 +15578,10 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="75" t="s">
+        <v>335</v>
+      </c>
+      <c r="B48" s="125" t="s">
         <v>336</v>
-      </c>
-      <c r="B48" s="125" t="s">
-        <v>337</v>
       </c>
       <c r="C48" s="123">
         <v>2</v>
@@ -15608,7 +15605,7 @@
         <v>4</v>
       </c>
       <c r="J48" s="220" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K48" s="124"/>
       <c r="L48" s="124"/>
@@ -15624,10 +15621,10 @@
     </row>
     <row r="49" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="75" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B49" s="125" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C49" s="123">
         <v>0</v>
@@ -15651,7 +15648,7 @@
         <v>4</v>
       </c>
       <c r="J49" s="220" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K49" s="124"/>
       <c r="L49" s="124"/>
@@ -15667,10 +15664,10 @@
     </row>
     <row r="50" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="75" t="s">
+        <v>339</v>
+      </c>
+      <c r="B50" s="125" t="s">
         <v>340</v>
-      </c>
-      <c r="B50" s="125" t="s">
-        <v>341</v>
       </c>
       <c r="C50" s="123">
         <v>2</v>
@@ -15694,7 +15691,7 @@
         <v>4</v>
       </c>
       <c r="J50" s="186" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K50" s="124"/>
       <c r="L50" s="124"/>
@@ -15710,10 +15707,10 @@
     </row>
     <row r="51" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="75" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B51" s="125" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C51" s="123">
         <v>2</v>
@@ -15737,7 +15734,7 @@
         <v>5</v>
       </c>
       <c r="J51" s="220" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K51" s="124"/>
       <c r="L51" s="124"/>
@@ -15753,10 +15750,10 @@
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="75" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B52" s="125" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C52" s="123">
         <v>0</v>
@@ -15796,10 +15793,10 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="75" t="s">
+        <v>344</v>
+      </c>
+      <c r="B53" s="125" t="s">
         <v>345</v>
-      </c>
-      <c r="B53" s="125" t="s">
-        <v>346</v>
       </c>
       <c r="C53" s="123">
         <v>2</v>
@@ -15823,7 +15820,7 @@
         <v>5</v>
       </c>
       <c r="J53" s="220" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K53" s="124"/>
       <c r="L53" s="124"/>
@@ -15839,10 +15836,10 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="75" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B54" s="125" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C54" s="123">
         <v>0</v>
@@ -15866,7 +15863,7 @@
         <v>5</v>
       </c>
       <c r="J54" s="220" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K54" s="124"/>
       <c r="L54" s="124"/>
@@ -15882,10 +15879,10 @@
     </row>
     <row r="55" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="134" t="s">
+        <v>348</v>
+      </c>
+      <c r="B55" s="135" t="s">
         <v>349</v>
-      </c>
-      <c r="B55" s="135" t="s">
-        <v>350</v>
       </c>
       <c r="C55" s="136">
         <v>0</v>
@@ -15909,7 +15906,7 @@
         <v>5</v>
       </c>
       <c r="J55" s="221" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K55" s="137"/>
       <c r="L55" s="137"/>
@@ -15944,7 +15941,7 @@
     </row>
     <row r="57" spans="1:18" ht="24" x14ac:dyDescent="0.3">
       <c r="A57" s="342" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B57" s="343"/>
       <c r="C57" s="343"/>
@@ -16027,15 +16024,15 @@
         <v>19</v>
       </c>
       <c r="R59" s="91" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="189" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="190" t="s">
         <v>150</v>
-      </c>
-      <c r="B60" s="190" t="s">
-        <v>151</v>
       </c>
       <c r="C60" s="191">
         <v>2</v>
@@ -16056,7 +16053,7 @@
         <v>2</v>
       </c>
       <c r="I60" s="315" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J60" s="217" t="s">
         <v>34</v>
@@ -16077,15 +16074,15 @@
         <v>53</v>
       </c>
       <c r="R60" s="199" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="85" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B61" s="131" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C61" s="86">
         <v>0</v>
@@ -16106,10 +16103,10 @@
         <v>3</v>
       </c>
       <c r="I61" s="87" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J61" s="185" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K61" s="81"/>
       <c r="L61" s="81"/>
@@ -16126,15 +16123,15 @@
         <v>53</v>
       </c>
       <c r="R61" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" s="131" t="s">
         <v>159</v>
-      </c>
-      <c r="B62" s="131" t="s">
-        <v>160</v>
       </c>
       <c r="C62" s="86">
         <v>2</v>
@@ -16155,10 +16152,10 @@
         <v>2</v>
       </c>
       <c r="I62" s="87" t="s">
+        <v>160</v>
+      </c>
+      <c r="J62" s="88" t="s">
         <v>161</v>
-      </c>
-      <c r="J62" s="88" t="s">
-        <v>162</v>
       </c>
       <c r="K62" s="81"/>
       <c r="L62" s="81"/>
@@ -16172,15 +16169,15 @@
         <v>65</v>
       </c>
       <c r="R62" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="85" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B63" s="131" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="86">
         <v>0</v>
@@ -16201,7 +16198,7 @@
         <v>3</v>
       </c>
       <c r="I63" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J63" s="88" t="s">
         <v>69</v>
@@ -16218,15 +16215,15 @@
         <v>65</v>
       </c>
       <c r="R63" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="B64" s="127" t="s">
         <v>164</v>
-      </c>
-      <c r="B64" s="127" t="s">
-        <v>165</v>
       </c>
       <c r="C64" s="86">
         <v>1</v>
@@ -16247,10 +16244,10 @@
         <v>3</v>
       </c>
       <c r="I64" s="87" t="s">
+        <v>165</v>
+      </c>
+      <c r="J64" s="185" t="s">
         <v>166</v>
-      </c>
-      <c r="J64" s="185" t="s">
-        <v>167</v>
       </c>
       <c r="K64" s="81"/>
       <c r="L64" s="81"/>
@@ -16266,15 +16263,15 @@
         <v>53</v>
       </c>
       <c r="R64" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65" s="127" t="s">
         <v>171</v>
-      </c>
-      <c r="B65" s="127" t="s">
-        <v>172</v>
       </c>
       <c r="C65" s="103">
         <v>1</v>
@@ -16295,34 +16292,34 @@
         <v>4</v>
       </c>
       <c r="I65" s="83" t="s">
+        <v>172</v>
+      </c>
+      <c r="J65" s="185" t="s">
         <v>173</v>
-      </c>
-      <c r="J65" s="185" t="s">
-        <v>174</v>
       </c>
       <c r="K65" s="81"/>
       <c r="L65" s="81"/>
       <c r="M65" s="88"/>
       <c r="N65" s="81"/>
       <c r="O65" s="81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P65" s="81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q65" s="201" t="s">
         <v>53</v>
       </c>
       <c r="R65" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" s="127" t="s">
         <v>175</v>
-      </c>
-      <c r="B66" s="127" t="s">
-        <v>176</v>
       </c>
       <c r="C66" s="103">
         <v>1</v>
@@ -16343,34 +16340,34 @@
         <v>4</v>
       </c>
       <c r="I66" s="83" t="s">
+        <v>172</v>
+      </c>
+      <c r="J66" s="185" t="s">
         <v>173</v>
-      </c>
-      <c r="J66" s="185" t="s">
-        <v>174</v>
       </c>
       <c r="K66" s="81"/>
       <c r="L66" s="81"/>
       <c r="M66" s="88"/>
       <c r="N66" s="81"/>
       <c r="O66" s="81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P66" s="81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q66" s="201" t="s">
         <v>53</v>
       </c>
       <c r="R66" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="79" t="s">
+        <v>176</v>
+      </c>
+      <c r="B67" s="127" t="s">
         <v>177</v>
-      </c>
-      <c r="B67" s="127" t="s">
-        <v>178</v>
       </c>
       <c r="C67" s="103">
         <v>0</v>
@@ -16391,10 +16388,10 @@
         <v>3</v>
       </c>
       <c r="I67" s="83" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J67" s="301" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K67" s="81"/>
       <c r="L67" s="81"/>
@@ -16412,15 +16409,15 @@
         <v>53</v>
       </c>
       <c r="R67" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="B68" s="132" t="s">
         <v>180</v>
-      </c>
-      <c r="B68" s="132" t="s">
-        <v>181</v>
       </c>
       <c r="C68" s="86">
         <v>2</v>
@@ -16444,7 +16441,7 @@
         <v>6</v>
       </c>
       <c r="J68" s="88" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K68" s="81"/>
       <c r="L68" s="81"/>
@@ -16458,15 +16455,15 @@
         <v>53</v>
       </c>
       <c r="R68" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="28" x14ac:dyDescent="0.2">
       <c r="A69" s="85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B69" s="132" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C69" s="86">
         <v>0</v>
@@ -16504,15 +16501,15 @@
         <v>53</v>
       </c>
       <c r="R69" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="85" t="s">
+        <v>183</v>
+      </c>
+      <c r="B70" s="131" t="s">
         <v>184</v>
-      </c>
-      <c r="B70" s="131" t="s">
-        <v>185</v>
       </c>
       <c r="C70" s="86">
         <v>2</v>
@@ -16536,7 +16533,7 @@
         <v>5</v>
       </c>
       <c r="J70" s="88" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K70" s="81"/>
       <c r="L70" s="81"/>
@@ -16550,15 +16547,15 @@
         <v>53</v>
       </c>
       <c r="R70" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="28" x14ac:dyDescent="0.2">
       <c r="A71" s="85" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B71" s="131" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C71" s="86">
         <v>0</v>
@@ -16582,7 +16579,7 @@
         <v>5</v>
       </c>
       <c r="J71" s="185" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K71" s="81"/>
       <c r="L71" s="81"/>
@@ -16596,15 +16593,15 @@
         <v>53</v>
       </c>
       <c r="R71" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="85" t="s">
+        <v>188</v>
+      </c>
+      <c r="B72" s="131" t="s">
         <v>189</v>
-      </c>
-      <c r="B72" s="131" t="s">
-        <v>190</v>
       </c>
       <c r="C72" s="86">
         <v>2</v>
@@ -16625,7 +16622,7 @@
         <v>5</v>
       </c>
       <c r="I72" s="83" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J72" s="185" t="s">
         <v>92</v>
@@ -16644,15 +16641,15 @@
         <v>53</v>
       </c>
       <c r="R72" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="B73" s="131" t="s">
         <v>192</v>
-      </c>
-      <c r="B73" s="131" t="s">
-        <v>193</v>
       </c>
       <c r="C73" s="86">
         <v>0</v>
@@ -16673,36 +16670,36 @@
         <v>5</v>
       </c>
       <c r="I73" s="87" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J73" s="88"/>
       <c r="K73" s="81"/>
       <c r="L73" s="81"/>
       <c r="M73" s="81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N73" s="81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O73" s="81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P73" s="81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q73" s="201" t="s">
         <v>53</v>
       </c>
       <c r="R73" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="B74" s="131" t="s">
         <v>196</v>
-      </c>
-      <c r="B74" s="131" t="s">
-        <v>197</v>
       </c>
       <c r="C74" s="86">
         <v>1</v>
@@ -16723,7 +16720,7 @@
         <v>2</v>
       </c>
       <c r="I74" s="83" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J74" s="185" t="s">
         <v>34</v>
@@ -16731,7 +16728,7 @@
       <c r="K74" s="81"/>
       <c r="L74" s="81"/>
       <c r="M74" s="81" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N74" s="81"/>
       <c r="O74" s="81"/>
@@ -16740,15 +16737,15 @@
         <v>65</v>
       </c>
       <c r="R74" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="28" x14ac:dyDescent="0.2">
       <c r="A75" s="79" t="s">
+        <v>198</v>
+      </c>
+      <c r="B75" s="131" t="s">
         <v>199</v>
-      </c>
-      <c r="B75" s="131" t="s">
-        <v>200</v>
       </c>
       <c r="C75" s="80">
         <v>2</v>
@@ -16769,35 +16766,35 @@
         <v>4</v>
       </c>
       <c r="I75" s="83" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J75" s="185" t="s">
         <v>34</v>
       </c>
       <c r="K75" s="81"/>
       <c r="L75" s="81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M75" s="81"/>
       <c r="N75" s="81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O75" s="81"/>
       <c r="P75" s="81"/>
       <c r="Q75" s="321" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R75" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="79" t="s">
+        <v>203</v>
+      </c>
+      <c r="B76" s="131" t="s">
         <v>204</v>
       </c>
-      <c r="B76" s="131" t="s">
-        <v>205</v>
-      </c>
       <c r="C76" s="80">
         <v>2</v>
       </c>
@@ -16811,16 +16808,16 @@
         <v>1</v>
       </c>
       <c r="G76" s="81" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H76" s="81">
         <v>3</v>
       </c>
       <c r="I76" s="83" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J76" s="185" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K76" s="81"/>
       <c r="L76" s="81"/>
@@ -16831,18 +16828,18 @@
       </c>
       <c r="P76" s="81"/>
       <c r="Q76" s="321" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R76" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="85" t="s">
+        <v>206</v>
+      </c>
+      <c r="B77" s="133" t="s">
         <v>207</v>
-      </c>
-      <c r="B77" s="133" t="s">
-        <v>208</v>
       </c>
       <c r="C77" s="80">
         <v>2</v>
@@ -16866,7 +16863,7 @@
         <v>3.5</v>
       </c>
       <c r="J77" s="88" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K77" s="81"/>
       <c r="L77" s="81"/>
@@ -16882,15 +16879,15 @@
         <v>65</v>
       </c>
       <c r="R77" s="200" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="85" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B78" s="131" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C78" s="80">
         <v>0</v>
@@ -16905,7 +16902,7 @@
         <v>1</v>
       </c>
       <c r="G78" s="81" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H78" s="81">
         <v>3</v>
@@ -16930,15 +16927,15 @@
         <v>65</v>
       </c>
       <c r="R78" s="200" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="79" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="85" t="s">
+        <v>211</v>
+      </c>
+      <c r="B79" s="131" t="s">
         <v>212</v>
-      </c>
-      <c r="B79" s="131" t="s">
-        <v>213</v>
       </c>
       <c r="C79" s="80">
         <v>2</v>
@@ -16962,7 +16959,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="J79" s="88" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K79" s="81"/>
       <c r="L79" s="81"/>
@@ -16978,15 +16975,15 @@
         <v>65</v>
       </c>
       <c r="R79" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="85" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B80" s="131" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C80" s="80">
         <v>0</v>
@@ -17010,7 +17007,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="J80" s="88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K80" s="81"/>
       <c r="L80" s="81"/>
@@ -17026,15 +17023,15 @@
         <v>65</v>
       </c>
       <c r="R80" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="85" t="s">
+        <v>215</v>
+      </c>
+      <c r="B81" s="131" t="s">
         <v>216</v>
-      </c>
-      <c r="B81" s="131" t="s">
-        <v>217</v>
       </c>
       <c r="C81" s="86">
         <v>2</v>
@@ -17070,15 +17067,15 @@
         <v>65</v>
       </c>
       <c r="R81" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="85" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B82" s="131" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C82" s="86">
         <v>0</v>
@@ -17102,7 +17099,7 @@
         <v>6</v>
       </c>
       <c r="J82" s="88" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K82" s="81"/>
       <c r="L82" s="81"/>
@@ -17116,15 +17113,15 @@
         <v>65</v>
       </c>
       <c r="R82" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="85" t="s">
+        <v>219</v>
+      </c>
+      <c r="B83" s="133" t="s">
         <v>220</v>
-      </c>
-      <c r="B83" s="133" t="s">
-        <v>221</v>
       </c>
       <c r="C83" s="86">
         <v>2</v>
@@ -17148,7 +17145,7 @@
         <v>5</v>
       </c>
       <c r="J83" s="88" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K83" s="81"/>
       <c r="L83" s="81"/>
@@ -17162,15 +17159,15 @@
         <v>65</v>
       </c>
       <c r="R83" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B84" s="133" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C84" s="86">
         <v>0</v>
@@ -17185,7 +17182,7 @@
         <v>1</v>
       </c>
       <c r="G84" s="81" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H84" s="81">
         <v>3</v>
@@ -17194,7 +17191,7 @@
         <v>5</v>
       </c>
       <c r="J84" s="88" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K84" s="81"/>
       <c r="L84" s="81"/>
@@ -17208,15 +17205,15 @@
         <v>65</v>
       </c>
       <c r="R84" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="85" t="s">
+        <v>224</v>
+      </c>
+      <c r="B85" s="131" t="s">
         <v>225</v>
-      </c>
-      <c r="B85" s="131" t="s">
-        <v>226</v>
       </c>
       <c r="C85" s="86">
         <v>2</v>
@@ -17240,7 +17237,7 @@
         <v>3</v>
       </c>
       <c r="J85" s="88" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K85" s="81"/>
       <c r="L85" s="81"/>
@@ -17254,15 +17251,15 @@
         <v>65</v>
       </c>
       <c r="R85" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="85" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B86" s="131" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C86" s="86">
         <v>0</v>
@@ -17298,15 +17295,15 @@
         <v>65</v>
       </c>
       <c r="R86" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="79" t="s">
+        <v>228</v>
+      </c>
+      <c r="B87" s="131" t="s">
         <v>229</v>
-      </c>
-      <c r="B87" s="131" t="s">
-        <v>230</v>
       </c>
       <c r="C87" s="86">
         <v>2</v>
@@ -17330,7 +17327,7 @@
         <v>4</v>
       </c>
       <c r="J87" s="185" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K87" s="81"/>
       <c r="L87" s="81"/>
@@ -17344,15 +17341,15 @@
         <v>65</v>
       </c>
       <c r="R87" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="79" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B88" s="131" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C88" s="86">
         <v>0</v>
@@ -17388,15 +17385,15 @@
         <v>65</v>
       </c>
       <c r="R88" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="79" t="s">
+        <v>232</v>
+      </c>
+      <c r="B89" s="131" t="s">
         <v>233</v>
-      </c>
-      <c r="B89" s="131" t="s">
-        <v>234</v>
       </c>
       <c r="C89" s="86">
         <v>2</v>
@@ -17417,7 +17414,7 @@
         <v>5</v>
       </c>
       <c r="I89" s="87" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J89" s="88"/>
       <c r="K89" s="81"/>
@@ -17434,15 +17431,15 @@
         <v>53</v>
       </c>
       <c r="R89" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="300" t="s">
+        <v>234</v>
+      </c>
+      <c r="B90" s="214" t="s">
         <v>235</v>
-      </c>
-      <c r="B90" s="214" t="s">
-        <v>236</v>
       </c>
       <c r="C90" s="81">
         <v>2</v>
@@ -17463,7 +17460,7 @@
         <v>5</v>
       </c>
       <c r="I90" s="81" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J90" s="185" t="s">
         <v>51</v>
@@ -17484,15 +17481,15 @@
         <v>53</v>
       </c>
       <c r="R90" s="204" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="300" t="s">
+        <v>239</v>
+      </c>
+      <c r="B91" s="125" t="s">
         <v>240</v>
-      </c>
-      <c r="B91" s="125" t="s">
-        <v>241</v>
       </c>
       <c r="C91" s="81">
         <v>0</v>
@@ -17516,7 +17513,7 @@
         <v>4</v>
       </c>
       <c r="J91" s="185" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K91" s="81"/>
       <c r="L91" s="81"/>
@@ -17530,15 +17527,15 @@
         <v>53</v>
       </c>
       <c r="R91" s="211" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="79" t="s">
+        <v>242</v>
+      </c>
+      <c r="B92" s="125" t="s">
         <v>243</v>
-      </c>
-      <c r="B92" s="125" t="s">
-        <v>244</v>
       </c>
       <c r="C92" s="81">
         <v>2</v>
@@ -17562,7 +17559,7 @@
         <v>5</v>
       </c>
       <c r="J92" s="185" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K92" s="81"/>
       <c r="L92" s="81"/>
@@ -17576,15 +17573,15 @@
         <v>53</v>
       </c>
       <c r="R92" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="195" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B93" s="230" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C93" s="197">
         <v>0</v>
@@ -17608,7 +17605,7 @@
         <v>5</v>
       </c>
       <c r="J93" s="222" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K93" s="197"/>
       <c r="L93" s="197"/>
@@ -17622,15 +17619,15 @@
         <v>53</v>
       </c>
       <c r="R93" s="204" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="79" t="s">
+        <v>246</v>
+      </c>
+      <c r="B94" s="125" t="s">
         <v>247</v>
-      </c>
-      <c r="B94" s="125" t="s">
-        <v>248</v>
       </c>
       <c r="C94" s="81">
         <v>1</v>
@@ -17659,7 +17656,7 @@
       <c r="K94" s="81"/>
       <c r="L94" s="81"/>
       <c r="M94" s="81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N94" s="81"/>
       <c r="O94" s="303"/>
@@ -17668,15 +17665,15 @@
         <v>53</v>
       </c>
       <c r="R94" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="300" t="s">
+        <v>248</v>
+      </c>
+      <c r="B95" s="125" t="s">
         <v>249</v>
-      </c>
-      <c r="B95" s="125" t="s">
-        <v>250</v>
       </c>
       <c r="C95" s="81">
         <v>2</v>
@@ -17697,7 +17694,7 @@
         <v>5</v>
       </c>
       <c r="I95" s="81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J95" s="144"/>
       <c r="K95" s="81"/>
@@ -17718,15 +17715,15 @@
         <v>53</v>
       </c>
       <c r="R95" s="279" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="206" t="s">
+        <v>253</v>
+      </c>
+      <c r="B96" s="319" t="s">
         <v>254</v>
-      </c>
-      <c r="B96" s="319" t="s">
-        <v>255</v>
       </c>
       <c r="C96" s="208">
         <v>2</v>
@@ -17764,13 +17761,13 @@
         <v>53</v>
       </c>
       <c r="R96" s="279" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A97" s="293"/>
       <c r="B97" s="294" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C97" s="295"/>
       <c r="D97" s="295"/>
@@ -17781,7 +17778,7 @@
         <v>13</v>
       </c>
       <c r="I97" s="290" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J97" s="296"/>
       <c r="K97" s="290"/>
@@ -17802,7 +17799,7 @@
     <row r="98" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A98" s="50"/>
       <c r="B98" s="112" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C98" s="236"/>
       <c r="D98" s="236"/>
@@ -17832,7 +17829,7 @@
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="85"/>
       <c r="B99" s="153" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C99" s="237"/>
       <c r="D99" s="237"/>
@@ -17856,7 +17853,7 @@
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="50"/>
       <c r="B100" s="47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C100" s="99"/>
       <c r="D100" s="99"/>
@@ -17893,7 +17890,7 @@
     <row r="101" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A101" s="50"/>
       <c r="B101" s="47" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C101" s="51"/>
       <c r="D101" s="51"/>
@@ -17922,10 +17919,10 @@
     </row>
     <row r="102" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="93" t="s">
+        <v>262</v>
+      </c>
+      <c r="B102" s="47" t="s">
         <v>263</v>
-      </c>
-      <c r="B102" s="47" t="s">
-        <v>264</v>
       </c>
       <c r="C102" s="51"/>
       <c r="D102" s="51"/>
@@ -17953,7 +17950,7 @@
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="50"/>
       <c r="B103" s="47" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C103" s="57"/>
       <c r="D103" s="57"/>
@@ -17993,7 +17990,7 @@
     <row r="104" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="59"/>
       <c r="B104" s="114" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C104" s="60"/>
       <c r="D104" s="60"/>
@@ -18018,26 +18015,26 @@
     <row r="106" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="107" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.2">
@@ -18049,7 +18046,7 @@
         <v>53</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
@@ -18057,7 +18054,7 @@
         <v>38</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
@@ -18065,13 +18062,13 @@
         <v>65</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="114" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="115" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="347" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B115" s="348"/>
       <c r="C115" s="348"/>
@@ -18115,7 +18112,7 @@
     </row>
     <row r="117" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="337" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B117" s="337"/>
       <c r="C117" s="337"/>
@@ -18138,7 +18135,7 @@
     </row>
     <row r="119" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="334" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B119" s="327"/>
       <c r="C119" s="327"/>
@@ -18182,7 +18179,7 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" s="335" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B121" s="336"/>
       <c r="C121" s="336"/>
@@ -18204,7 +18201,7 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B123" s="326" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C123" s="326"/>
       <c r="D123" s="326"/>
@@ -18223,7 +18220,7 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" s="325" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B124" s="326"/>
       <c r="C124" s="326"/>
@@ -18245,7 +18242,7 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126" s="324" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B126" s="324"/>
       <c r="C126" s="324"/>
@@ -18385,13 +18382,13 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -18403,19 +18400,19 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L1">
         <v>1</v>
@@ -18456,20 +18453,20 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>363</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -18492,20 +18489,20 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="35" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -18528,16 +18525,16 @@
         <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>368</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -18561,16 +18558,16 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>370</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -18594,16 +18591,16 @@
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>372</v>
-      </c>
       <c r="J6" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K6" s="4"/>
     </row>
@@ -18627,13 +18624,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>374</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>43</v>
@@ -18660,13 +18657,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>375</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>376</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>43</v>
@@ -18675,7 +18672,7 @@
     </row>
     <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B9" s="5">
         <f>SUM(B2:B8)</f>
@@ -18706,7 +18703,7 @@
     </row>
     <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B11" s="4">
         <v>3</v>
@@ -18724,16 +18721,16 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>29</v>
@@ -18741,7 +18738,7 @@
     </row>
     <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B12" s="4">
         <v>3</v>
@@ -18759,16 +18756,16 @@
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H12" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>368</v>
-      </c>
       <c r="J12" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>29</v>
@@ -18794,16 +18791,16 @@
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H13" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>382</v>
-      </c>
       <c r="J13" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>26</v>
@@ -18827,16 +18824,16 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K14" s="4"/>
     </row>
@@ -18860,16 +18857,16 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>386</v>
-      </c>
       <c r="J15" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>35</v>
@@ -18895,16 +18892,16 @@
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H16" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>388</v>
-      </c>
       <c r="J16" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>35</v>
@@ -18930,16 +18927,16 @@
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>390</v>
-      </c>
       <c r="I17" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>35</v>
@@ -18947,7 +18944,7 @@
     </row>
     <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B18" s="5">
         <f>SUM(B11:B17)</f>
@@ -18996,24 +18993,24 @@
         <v>1</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H20" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>386</v>
-      </c>
       <c r="J20" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B21" s="5">
         <f>SUM(B20)</f>
@@ -19062,16 +19059,16 @@
         <v>1</v>
       </c>
       <c r="G23" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="I23" s="4" t="s">
-        <v>363</v>
-      </c>
       <c r="J23" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K23" s="4"/>
     </row>
@@ -19095,24 +19092,24 @@
         <v>0</v>
       </c>
       <c r="G24" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="I24" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>396</v>
-      </c>
       <c r="J24" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B25" s="5">
         <f>SUM(B23:B24)</f>
@@ -19130,7 +19127,7 @@
     </row>
     <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B26" s="4">
         <v>3</v>
@@ -19148,19 +19145,19 @@
         <v>1</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H26" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>368</v>
-      </c>
       <c r="J26" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -19186,16 +19183,16 @@
         <v>62</v>
       </c>
       <c r="H27" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>399</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -19219,21 +19216,21 @@
         <v>62</v>
       </c>
       <c r="H28" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>382</v>
-      </c>
       <c r="J28" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B29" s="5">
         <v>11</v>
@@ -19269,10 +19266,10 @@
         <v>62</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>43</v>
@@ -19281,7 +19278,7 @@
     </row>
     <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B31" s="6">
         <f>SUM(B30)</f>
@@ -19348,16 +19345,16 @@
         <v>1</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>55</v>
@@ -19383,16 +19380,16 @@
         <v>1</v>
       </c>
       <c r="G36" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>390</v>
-      </c>
       <c r="I36" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>74</v>
@@ -19418,19 +19415,19 @@
         <v>1</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H37" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="I37" s="4" t="s">
-        <v>388</v>
-      </c>
       <c r="J37" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -19453,16 +19450,16 @@
         <v>1</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>110</v>
@@ -19470,7 +19467,7 @@
     </row>
     <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B39" s="4">
         <v>3</v>
@@ -19485,13 +19482,13 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K39" s="4"/>
     </row>
     <row r="40" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B40" s="7">
         <v>2</v>
@@ -19506,7 +19503,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K40" s="4"/>
     </row>
@@ -19538,7 +19535,7 @@
     </row>
     <row r="43" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B43" s="4">
         <v>5</v>
@@ -19556,24 +19553,24 @@
         <v>1</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B44" s="4">
         <v>5</v>
@@ -19591,16 +19588,16 @@
         <v>1</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>118</v>
@@ -19608,7 +19605,7 @@
     </row>
     <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B45" s="4">
         <v>4</v>
@@ -19626,22 +19623,22 @@
         <v>1</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H45" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="I45" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="I45" s="4" t="s">
-        <v>411</v>
-      </c>
       <c r="J45" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B46" s="4">
         <v>5</v>
@@ -19659,16 +19656,16 @@
         <v>1</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K46" s="4" t="s">
         <v>110</v>
@@ -19676,7 +19673,7 @@
     </row>
     <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B47" s="4">
         <v>5</v>
@@ -19694,19 +19691,19 @@
         <v>1</v>
       </c>
       <c r="G47" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="I47" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -19737,7 +19734,7 @@
     </row>
     <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B50" s="4">
         <v>3</v>
@@ -19758,19 +19755,19 @@
         <v>62</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B51" s="3">
         <v>4</v>
@@ -19788,22 +19785,22 @@
         <v>1</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H51" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="I51" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="I51" s="4" t="s">
-        <v>411</v>
-      </c>
       <c r="J51" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K51" s="4"/>
     </row>
     <row r="52" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B52" s="7">
         <v>5</v>
@@ -19821,19 +19818,19 @@
         <v>1</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -19874,7 +19871,7 @@
     </row>
     <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="34" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B59" s="34">
         <v>4</v>
@@ -19889,24 +19886,24 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K59" s="4"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B61" s="4">
         <v>5</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D61" s="4">
         <v>2</v>
@@ -19918,21 +19915,21 @@
         <v>1</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B62" s="4">
         <v>3</v>
@@ -19950,27 +19947,27 @@
         <v>1</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B63" s="7">
         <v>3</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -19980,91 +19977,91 @@
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B64" s="11">
         <v>4</v>
       </c>
       <c r="C64" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1</v>
+      </c>
+      <c r="E64" s="4">
+        <v>2</v>
+      </c>
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="H64" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D64" s="4">
-        <v>1</v>
-      </c>
-      <c r="E64" s="4">
-        <v>2</v>
-      </c>
-      <c r="F64" s="4">
-        <v>1</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>423</v>
-      </c>
       <c r="I64" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B65" s="14">
         <v>4</v>
       </c>
       <c r="C65" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4">
+        <v>2</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="H65" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D65" s="4">
-        <v>1</v>
-      </c>
-      <c r="E65" s="4">
-        <v>2</v>
-      </c>
-      <c r="F65" s="4">
-        <v>1</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>423</v>
-      </c>
       <c r="I65" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B66" s="17">
         <v>3</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4">
@@ -20074,21 +20071,21 @@
         <v>1</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B67" s="11">
         <v>4</v>
@@ -20101,12 +20098,12 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B68" s="14">
         <v>4</v>
@@ -20119,12 +20116,12 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B69" s="17">
         <v>3</v>
@@ -20137,12 +20134,12 @@
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B70" s="3">
         <v>5</v>
@@ -20160,21 +20157,21 @@
         <v>1</v>
       </c>
       <c r="G70" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="H70" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="H70" s="4" t="s">
-        <v>428</v>
-      </c>
       <c r="I70" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B71" s="4">
         <v>5</v>
@@ -20189,18 +20186,18 @@
         <v>62</v>
       </c>
       <c r="H71" s="32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I71" s="32" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B72" s="4">
         <v>5</v>
@@ -20218,27 +20215,27 @@
         <v>1</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B73" s="4">
         <v>5</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D73" s="4">
         <v>2</v>
@@ -20250,27 +20247,27 @@
         <v>1</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H73" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="I73" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="I73" s="4" t="s">
-        <v>368</v>
-      </c>
       <c r="J73" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B74" s="4">
         <v>5</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D74" s="4">
         <v>2</v>
@@ -20282,27 +20279,27 @@
         <v>1</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B75" s="4">
         <v>5</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D75" s="4">
         <v>0</v>
@@ -20314,91 +20311,91 @@
         <v>2</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B76" s="4">
+        <v>2</v>
+      </c>
+      <c r="C76" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="B76" s="4">
-        <v>2</v>
-      </c>
-      <c r="C76" s="15" t="s">
+      <c r="D76" s="19">
+        <v>0</v>
+      </c>
+      <c r="E76" s="8">
+        <v>1</v>
+      </c>
+      <c r="F76" s="4">
+        <v>1</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="H76" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="D76" s="19">
-        <v>0</v>
-      </c>
-      <c r="E76" s="8">
-        <v>1</v>
-      </c>
-      <c r="F76" s="4">
-        <v>1</v>
-      </c>
-      <c r="G76" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>439</v>
-      </c>
       <c r="I76" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B77" s="4">
         <v>2</v>
       </c>
       <c r="C77" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="D77" s="19">
+        <v>0</v>
+      </c>
+      <c r="E77" s="8">
+        <v>1</v>
+      </c>
+      <c r="F77" s="4">
+        <v>1</v>
+      </c>
+      <c r="G77" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="H77" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="D77" s="19">
-        <v>0</v>
-      </c>
-      <c r="E77" s="8">
-        <v>1</v>
-      </c>
-      <c r="F77" s="4">
-        <v>1</v>
-      </c>
-      <c r="G77" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>439</v>
-      </c>
       <c r="I77" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B78" s="4">
         <v>2</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D78" s="19">
         <v>0</v>
@@ -20410,27 +20407,27 @@
         <v>1</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B79" s="4">
         <v>2</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D79" s="19">
         <v>0</v>
@@ -20442,26 +20439,26 @@
         <v>1</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B85" s="4">
         <f>B66+B73+B78+B80</f>
@@ -20478,7 +20475,7 @@
     </row>
     <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B87" s="4">
         <v>20</v>
@@ -20486,7 +20483,7 @@
     </row>
     <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B88" s="4">
         <v>10</v>
@@ -20507,26 +20504,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="64cee142-9623-4b63-8ea8-1d4facd6545a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0bdf3a53-275c-4001-b611-e41331286eb1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x010100CA947E63DBB18C43B0DCD636FEFAAF82" ma:contentTypeVersion="10" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="add355b8eb8a1d07a5c296ebc5fa18c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0bdf3a53-275c-4001-b611-e41331286eb1" xmlns:ns3="64cee142-9623-4b63-8ea8-1d4facd6545a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="39c3d52e67d593269f3de29aa75e9200" ns2:_="" ns3:_="">
     <xsd:import namespace="0bdf3a53-275c-4001-b611-e41331286eb1"/>
@@ -20715,10 +20692,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="64cee142-9623-4b63-8ea8-1d4facd6545a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0bdf3a53-275c-4001-b611-e41331286eb1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6053F634-73E9-4531-AB0D-1B892B644CD4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BE70B47-A86D-41D9-9964-9D68D16679AD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0bdf3a53-275c-4001-b611-e41331286eb1"/>
+    <ds:schemaRef ds:uri="64cee142-9623-4b63-8ea8-1d4facd6545a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20735,20 +20743,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BE70B47-A86D-41D9-9964-9D68D16679AD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6053F634-73E9-4531-AB0D-1B892B644CD4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0bdf3a53-275c-4001-b611-e41331286eb1"/>
-    <ds:schemaRef ds:uri="64cee142-9623-4b63-8ea8-1d4facd6545a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/backend/django_subject_manager/input/nappali.xlsx
+++ b/backend/django_subject_manager/input/nappali.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathearnoldattila/Arnold/egyetem/6felev/subject_manager/backend/django_subject_manager/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A977457-61D1-1C43-97F9-4DAC2E1AF5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFFE39C-3C54-0741-BBF6-E98B4767436E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modellező (A)" sheetId="4" r:id="rId1"/>
@@ -3970,7 +3970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -8930,8 +8930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V134"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V76" sqref="V76"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9480,7 +9480,7 @@
     </row>
     <row r="19" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="77" t="s">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="B19" s="125" t="s">
         <v>50</v>
@@ -9507,7 +9507,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="186" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K19" s="124"/>
       <c r="L19" s="94" t="s">
@@ -20504,6 +20504,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="64cee142-9623-4b63-8ea8-1d4facd6545a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0bdf3a53-275c-4001-b611-e41331286eb1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x010100CA947E63DBB18C43B0DCD636FEFAAF82" ma:contentTypeVersion="10" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="add355b8eb8a1d07a5c296ebc5fa18c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0bdf3a53-275c-4001-b611-e41331286eb1" xmlns:ns3="64cee142-9623-4b63-8ea8-1d4facd6545a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="39c3d52e67d593269f3de29aa75e9200" ns2:_="" ns3:_="">
     <xsd:import namespace="0bdf3a53-275c-4001-b611-e41331286eb1"/>
@@ -20692,27 +20712,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="64cee142-9623-4b63-8ea8-1d4facd6545a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0bdf3a53-275c-4001-b611-e41331286eb1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6053F634-73E9-4531-AB0D-1B892B644CD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4409EB5F-1448-4D54-9B71-5C37674B4244}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="64cee142-9623-4b63-8ea8-1d4facd6545a"/>
+    <ds:schemaRef ds:uri="0bdf3a53-275c-4001-b611-e41331286eb1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BE70B47-A86D-41D9-9964-9D68D16679AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20729,23 +20748,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4409EB5F-1448-4D54-9B71-5C37674B4244}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="64cee142-9623-4b63-8ea8-1d4facd6545a"/>
-    <ds:schemaRef ds:uri="0bdf3a53-275c-4001-b611-e41331286eb1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6053F634-73E9-4531-AB0D-1B892B644CD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>